--- a/data/study_search/database_search/processed/post_AS/packages_for_full_text_download/study_set_26.xlsx
+++ b/data/study_search/database_search/processed/post_AS/packages_for_full_text_download/study_set_26.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10727"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/franzprante/GitHub/MORPEP/META_CMP/data/data/study_search/database_search/processed/post_AS/packages_for_full_text_download/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7D23391-84EB-AE41-9846-E72F3924EA72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{694BB166-0745-844B-9FBA-029A2A61F2F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-4980" yWindow="-21100" windowWidth="38400" windowHeight="21100" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4440" yWindow="740" windowWidth="20520" windowHeight="16740" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="382">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="385">
   <si>
     <t>record_id</t>
   </si>
@@ -105,12 +105,6 @@
     <t>rid2</t>
   </si>
   <si>
-    <t>contact_authors</t>
-  </si>
-  <si>
-    <t>reason_for_contact</t>
-  </si>
-  <si>
     <t>appendix</t>
   </si>
   <si>
@@ -201,9 +195,6 @@
     <t>me</t>
   </si>
   <si>
-    <t>"chol": true?</t>
-  </si>
-  <si>
     <t>T6A78U6B</t>
   </si>
   <si>
@@ -1171,6 +1162,24 @@
   </si>
   <si>
     <t>no_comarable_effect_sizes</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>no_changes</t>
+  </si>
+  <si>
+    <t>changes_done</t>
+  </si>
+  <si>
+    <t>recoding_check</t>
+  </si>
+  <si>
+    <t>full_random_check</t>
+  </si>
+  <si>
+    <t>full_random_check; "chol": true?</t>
   </si>
 </sst>
 </file>
@@ -1408,15 +1417,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AH41"/>
+  <dimension ref="A1:AF41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="X2" sqref="X2"/>
+    <sheetView tabSelected="1" topLeftCell="X1" zoomScale="170" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AC3" sqref="AC3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1501,10 +1510,10 @@
       <c r="AB1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AC1" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AD1" t="s">
         <v>29</v>
       </c>
       <c r="AE1" t="s">
@@ -1513,31 +1522,25 @@
       <c r="AF1" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>33</v>
-      </c>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1038</v>
       </c>
       <c r="B2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" t="s">
         <v>34</v>
-      </c>
-      <c r="C2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D2" t="s">
-        <v>36</v>
       </c>
       <c r="E2">
         <v>2015</v>
       </c>
       <c r="F2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G2">
         <v>3</v>
@@ -1546,164 +1549,164 @@
         <v>178</v>
       </c>
       <c r="I2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J2" t="s">
+        <v>37</v>
+      </c>
+      <c r="L2" t="s">
         <v>38</v>
       </c>
-      <c r="J2" t="s">
+      <c r="M2" t="s">
         <v>39</v>
       </c>
-      <c r="L2" t="s">
+      <c r="N2">
+        <v>1</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2" t="s">
         <v>40</v>
-      </c>
-      <c r="M2" t="s">
-        <v>41</v>
-      </c>
-      <c r="N2">
-        <v>1</v>
-      </c>
-      <c r="O2">
-        <v>0</v>
-      </c>
-      <c r="P2">
-        <v>0</v>
-      </c>
-      <c r="Q2">
-        <v>0</v>
-      </c>
-      <c r="R2" t="s">
-        <v>42</v>
       </c>
       <c r="S2" s="2">
         <v>45230</v>
       </c>
       <c r="T2" t="s">
+        <v>41</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2" t="s">
+        <v>42</v>
+      </c>
+      <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="X2" t="s">
+        <v>378</v>
+      </c>
+      <c r="Y2" t="s">
         <v>43</v>
       </c>
-      <c r="U2">
-        <v>0</v>
-      </c>
-      <c r="V2" t="s">
-        <v>44</v>
-      </c>
-      <c r="W2">
-        <v>0</v>
-      </c>
-      <c r="X2" t="s">
-        <v>381</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AG2">
+      <c r="AE2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2537</v>
       </c>
       <c r="B3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" t="s">
         <v>46</v>
-      </c>
-      <c r="C3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D3" t="s">
-        <v>48</v>
       </c>
       <c r="E3">
         <v>2016</v>
       </c>
       <c r="F3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G3">
         <v>5</v>
       </c>
       <c r="H3" t="s">
+        <v>48</v>
+      </c>
+      <c r="I3" t="s">
+        <v>36</v>
+      </c>
+      <c r="J3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K3" t="s">
         <v>50</v>
       </c>
-      <c r="I3" t="s">
-        <v>38</v>
-      </c>
-      <c r="J3" t="s">
+      <c r="L3" t="s">
         <v>51</v>
       </c>
-      <c r="K3" t="s">
+      <c r="M3" t="s">
         <v>52</v>
       </c>
-      <c r="L3" t="s">
+      <c r="N3">
+        <v>1</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3" t="s">
         <v>53</v>
-      </c>
-      <c r="M3" t="s">
-        <v>54</v>
-      </c>
-      <c r="N3">
-        <v>1</v>
-      </c>
-      <c r="O3">
-        <v>0</v>
-      </c>
-      <c r="P3">
-        <v>0</v>
-      </c>
-      <c r="Q3">
-        <v>0</v>
-      </c>
-      <c r="R3" t="s">
-        <v>55</v>
       </c>
       <c r="S3" s="2">
         <v>45230</v>
       </c>
       <c r="T3" t="s">
+        <v>41</v>
+      </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="V3" t="s">
+        <v>54</v>
+      </c>
+      <c r="W3">
+        <v>1</v>
+      </c>
+      <c r="Y3" t="s">
         <v>43</v>
       </c>
-      <c r="U3">
-        <v>0</v>
-      </c>
-      <c r="V3" t="s">
-        <v>56</v>
-      </c>
-      <c r="W3">
-        <v>1</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>45</v>
-      </c>
       <c r="Z3" t="s">
-        <v>57</v>
-      </c>
-      <c r="AD3">
-        <v>1</v>
-      </c>
-      <c r="AE3" t="s">
-        <v>58</v>
-      </c>
-      <c r="AG3">
-        <v>1</v>
-      </c>
-      <c r="AH3">
-        <v>0</v>
+        <v>55</v>
+      </c>
+      <c r="AB3">
+        <v>1</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>384</v>
+      </c>
+      <c r="AE3">
+        <v>1</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>380</v>
       </c>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>7387</v>
       </c>
       <c r="B4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C4" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E4">
         <v>2018</v>
       </c>
       <c r="F4" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="G4">
         <v>4</v>
@@ -1712,117 +1715,117 @@
         <v>6</v>
       </c>
       <c r="I4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J4" t="s">
+        <v>60</v>
+      </c>
+      <c r="K4" t="s">
+        <v>61</v>
+      </c>
+      <c r="M4" t="s">
+        <v>62</v>
+      </c>
+      <c r="N4">
+        <v>1</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4" t="s">
         <v>63</v>
-      </c>
-      <c r="K4" t="s">
-        <v>64</v>
-      </c>
-      <c r="M4" t="s">
-        <v>65</v>
-      </c>
-      <c r="N4">
-        <v>1</v>
-      </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
-      <c r="P4">
-        <v>0</v>
-      </c>
-      <c r="Q4">
-        <v>0</v>
-      </c>
-      <c r="R4" t="s">
-        <v>66</v>
       </c>
       <c r="S4" s="2">
         <v>45228</v>
       </c>
       <c r="T4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="U4">
         <v>0</v>
       </c>
       <c r="V4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="W4">
         <v>0</v>
       </c>
       <c r="X4" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="Y4" t="s">
-        <v>45</v>
-      </c>
-      <c r="AG4">
+        <v>43</v>
+      </c>
+      <c r="AE4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>7000</v>
       </c>
       <c r="B5" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C5" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D5" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E5">
         <v>2022</v>
       </c>
       <c r="F5" t="s">
+        <v>69</v>
+      </c>
+      <c r="G5" t="s">
+        <v>70</v>
+      </c>
+      <c r="H5" t="s">
+        <v>71</v>
+      </c>
+      <c r="I5" t="s">
+        <v>36</v>
+      </c>
+      <c r="J5" t="s">
         <v>72</v>
       </c>
-      <c r="G5" t="s">
+      <c r="K5" t="s">
         <v>73</v>
       </c>
-      <c r="H5" t="s">
+      <c r="L5" t="s">
         <v>74</v>
       </c>
-      <c r="I5" t="s">
-        <v>38</v>
-      </c>
-      <c r="J5" t="s">
+      <c r="M5" t="s">
         <v>75</v>
       </c>
-      <c r="K5" t="s">
+      <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5" t="s">
         <v>76</v>
-      </c>
-      <c r="L5" t="s">
-        <v>77</v>
-      </c>
-      <c r="M5" t="s">
-        <v>78</v>
-      </c>
-      <c r="N5">
-        <v>1</v>
-      </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-      <c r="P5">
-        <v>0</v>
-      </c>
-      <c r="Q5">
-        <v>0</v>
-      </c>
-      <c r="R5" t="s">
-        <v>79</v>
       </c>
       <c r="S5" s="2">
         <v>45228</v>
       </c>
       <c r="T5" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="U5">
         <v>0</v>
@@ -1831,69 +1834,69 @@
         <v>0</v>
       </c>
       <c r="X5" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="Y5" t="s">
-        <v>45</v>
-      </c>
-      <c r="AG5">
+        <v>43</v>
+      </c>
+      <c r="AE5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1157</v>
       </c>
       <c r="B6" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C6" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D6" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E6">
         <v>2013</v>
       </c>
       <c r="F6" t="s">
+        <v>81</v>
+      </c>
+      <c r="H6" t="s">
+        <v>82</v>
+      </c>
+      <c r="I6" t="s">
+        <v>36</v>
+      </c>
+      <c r="J6" t="s">
+        <v>83</v>
+      </c>
+      <c r="L6" t="s">
         <v>84</v>
       </c>
-      <c r="H6" t="s">
+      <c r="M6" t="s">
         <v>85</v>
       </c>
-      <c r="I6" t="s">
-        <v>38</v>
-      </c>
-      <c r="J6" t="s">
+      <c r="N6">
+        <v>1</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6" t="s">
         <v>86</v>
-      </c>
-      <c r="L6" t="s">
-        <v>87</v>
-      </c>
-      <c r="M6" t="s">
-        <v>88</v>
-      </c>
-      <c r="N6">
-        <v>1</v>
-      </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-      <c r="P6">
-        <v>0</v>
-      </c>
-      <c r="Q6">
-        <v>0</v>
-      </c>
-      <c r="R6" t="s">
-        <v>89</v>
       </c>
       <c r="S6" s="2">
         <v>45228</v>
       </c>
       <c r="T6" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="U6">
         <v>0</v>
@@ -1902,134 +1905,149 @@
         <v>1</v>
       </c>
       <c r="Y6" t="s">
-        <v>45</v>
-      </c>
-      <c r="AC6">
-        <v>1</v>
-      </c>
-      <c r="AG6">
-        <v>1</v>
-      </c>
-      <c r="AH6">
-        <v>1</v>
+        <v>43</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA6">
+        <v>1</v>
+      </c>
+      <c r="AB6">
+        <v>1</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>382</v>
+      </c>
+      <c r="AE6">
+        <v>1</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>381</v>
       </c>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>8591</v>
       </c>
       <c r="B7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C7" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D7" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E7">
         <v>2003</v>
       </c>
       <c r="I7" t="s">
+        <v>90</v>
+      </c>
+      <c r="J7" t="s">
+        <v>91</v>
+      </c>
+      <c r="M7" t="s">
+        <v>92</v>
+      </c>
+      <c r="N7">
+        <v>1</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7" t="s">
         <v>93</v>
-      </c>
-      <c r="J7" t="s">
-        <v>94</v>
-      </c>
-      <c r="M7" t="s">
-        <v>95</v>
-      </c>
-      <c r="N7">
-        <v>1</v>
-      </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
-      <c r="P7">
-        <v>0</v>
-      </c>
-      <c r="Q7">
-        <v>0</v>
-      </c>
-      <c r="R7" t="s">
-        <v>96</v>
       </c>
       <c r="S7" s="2">
         <v>45228</v>
       </c>
       <c r="T7" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="U7">
         <v>0</v>
       </c>
       <c r="V7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="W7">
         <v>0</v>
       </c>
       <c r="X7" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="Y7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="Z7" t="s">
-        <v>45</v>
-      </c>
-      <c r="AG7">
+        <v>43</v>
+      </c>
+      <c r="AB7">
+        <v>1</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>379</v>
+      </c>
+      <c r="AE7">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1031</v>
       </c>
       <c r="B8" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C8" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D8" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E8">
         <v>2006</v>
       </c>
       <c r="I8" t="s">
+        <v>98</v>
+      </c>
+      <c r="J8" t="s">
+        <v>99</v>
+      </c>
+      <c r="L8" t="s">
+        <v>100</v>
+      </c>
+      <c r="M8" t="s">
         <v>101</v>
       </c>
-      <c r="J8" t="s">
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8" t="s">
         <v>102</v>
-      </c>
-      <c r="L8" t="s">
-        <v>103</v>
-      </c>
-      <c r="M8" t="s">
-        <v>104</v>
-      </c>
-      <c r="N8">
-        <v>1</v>
-      </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
-      <c r="P8">
-        <v>0</v>
-      </c>
-      <c r="Q8">
-        <v>0</v>
-      </c>
-      <c r="R8" t="s">
-        <v>105</v>
       </c>
       <c r="S8" s="2">
         <v>45228</v>
       </c>
       <c r="T8" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="U8">
         <v>0</v>
@@ -2038,45 +2056,51 @@
         <v>0</v>
       </c>
       <c r="X8" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="Y8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="Z8" t="s">
-        <v>45</v>
-      </c>
-      <c r="AG8">
+        <v>43</v>
+      </c>
+      <c r="AB8">
+        <v>1</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>379</v>
+      </c>
+      <c r="AE8">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>4085</v>
       </c>
       <c r="B9" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C9" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D9" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E9">
         <v>2007</v>
       </c>
       <c r="I9" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="J9" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="L9" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="M9" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -2094,7 +2118,7 @@
         <v>45228</v>
       </c>
       <c r="T9" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="U9">
         <v>0</v>
@@ -2106,39 +2130,45 @@
         <v>14</v>
       </c>
       <c r="Y9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="Z9" t="s">
-        <v>45</v>
-      </c>
-      <c r="AG9">
+        <v>43</v>
+      </c>
+      <c r="AB9">
+        <v>1</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>379</v>
+      </c>
+      <c r="AE9">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>7523</v>
       </c>
       <c r="B10" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C10" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D10" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E10">
         <v>2015</v>
       </c>
       <c r="I10" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="J10" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="M10" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -2153,19 +2183,19 @@
         <v>1</v>
       </c>
       <c r="R10" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="S10" s="2">
         <v>45228</v>
       </c>
       <c r="T10" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="U10">
         <v>0</v>
       </c>
       <c r="V10" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="W10">
         <v>0</v>
@@ -2174,72 +2204,78 @@
         <v>16</v>
       </c>
       <c r="Y10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="Z10" t="s">
-        <v>45</v>
-      </c>
-      <c r="AG10">
+        <v>43</v>
+      </c>
+      <c r="AB10">
+        <v>1</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>379</v>
+      </c>
+      <c r="AE10">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>8584</v>
       </c>
       <c r="B11" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C11" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D11" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E11">
         <v>2017</v>
       </c>
       <c r="F11" t="s">
+        <v>120</v>
+      </c>
+      <c r="H11" t="s">
+        <v>121</v>
+      </c>
+      <c r="I11" t="s">
+        <v>36</v>
+      </c>
+      <c r="J11" t="s">
+        <v>122</v>
+      </c>
+      <c r="K11" t="s">
         <v>123</v>
       </c>
-      <c r="H11" t="s">
+      <c r="L11" t="s">
         <v>124</v>
       </c>
-      <c r="I11" t="s">
-        <v>38</v>
-      </c>
-      <c r="J11" t="s">
+      <c r="M11" t="s">
         <v>125</v>
       </c>
-      <c r="K11" t="s">
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11" t="s">
         <v>126</v>
-      </c>
-      <c r="L11" t="s">
-        <v>127</v>
-      </c>
-      <c r="M11" t="s">
-        <v>128</v>
-      </c>
-      <c r="N11">
-        <v>1</v>
-      </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
-      <c r="P11">
-        <v>0</v>
-      </c>
-      <c r="Q11">
-        <v>0</v>
-      </c>
-      <c r="R11" t="s">
-        <v>129</v>
       </c>
       <c r="S11" s="2">
         <v>45228</v>
       </c>
       <c r="T11" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="U11">
         <v>0</v>
@@ -2248,33 +2284,33 @@
         <v>0</v>
       </c>
       <c r="X11" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="Y11" t="s">
-        <v>45</v>
-      </c>
-      <c r="AG11">
+        <v>43</v>
+      </c>
+      <c r="AE11">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>4772</v>
       </c>
       <c r="B12" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C12" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D12" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="E12">
         <v>2006</v>
       </c>
       <c r="F12" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="G12">
         <v>3</v>
@@ -2283,75 +2319,75 @@
         <v>34</v>
       </c>
       <c r="I12" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J12" t="s">
+        <v>131</v>
+      </c>
+      <c r="L12" t="s">
+        <v>132</v>
+      </c>
+      <c r="M12" t="s">
+        <v>133</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12" t="s">
         <v>134</v>
-      </c>
-      <c r="L12" t="s">
-        <v>135</v>
-      </c>
-      <c r="M12" t="s">
-        <v>136</v>
-      </c>
-      <c r="N12">
-        <v>1</v>
-      </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-      <c r="P12">
-        <v>0</v>
-      </c>
-      <c r="Q12">
-        <v>0</v>
-      </c>
-      <c r="R12" t="s">
-        <v>137</v>
       </c>
       <c r="S12" s="2">
         <v>45228</v>
       </c>
       <c r="T12" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="U12">
         <v>0</v>
       </c>
       <c r="V12" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="W12">
         <v>0</v>
       </c>
       <c r="X12" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="Y12" t="s">
-        <v>45</v>
-      </c>
-      <c r="AG12">
+        <v>43</v>
+      </c>
+      <c r="AE12">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>6499</v>
       </c>
       <c r="B13" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C13" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D13" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="E13">
         <v>2022</v>
       </c>
       <c r="F13" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="G13">
         <v>4</v>
@@ -2360,97 +2396,97 @@
         <v>17</v>
       </c>
       <c r="I13" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J13" t="s">
+        <v>140</v>
+      </c>
+      <c r="L13" t="s">
+        <v>141</v>
+      </c>
+      <c r="M13" t="s">
+        <v>142</v>
+      </c>
+      <c r="N13">
+        <v>1</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13" t="s">
         <v>143</v>
-      </c>
-      <c r="L13" t="s">
-        <v>144</v>
-      </c>
-      <c r="M13" t="s">
-        <v>145</v>
-      </c>
-      <c r="N13">
-        <v>1</v>
-      </c>
-      <c r="O13">
-        <v>0</v>
-      </c>
-      <c r="P13">
-        <v>0</v>
-      </c>
-      <c r="Q13">
-        <v>0</v>
-      </c>
-      <c r="R13" t="s">
-        <v>146</v>
       </c>
       <c r="S13" s="2">
         <v>45228</v>
       </c>
       <c r="T13" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="U13">
         <v>0</v>
       </c>
       <c r="V13" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="W13">
         <v>0</v>
       </c>
       <c r="X13" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="Y13" t="s">
-        <v>45</v>
-      </c>
-      <c r="AG13">
+        <v>43</v>
+      </c>
+      <c r="AE13">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>8611</v>
       </c>
       <c r="B14" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C14" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D14" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="E14">
         <v>1995</v>
       </c>
       <c r="F14" t="s">
+        <v>147</v>
+      </c>
+      <c r="G14" t="s">
+        <v>148</v>
+      </c>
+      <c r="H14" t="s">
+        <v>149</v>
+      </c>
+      <c r="I14" t="s">
+        <v>36</v>
+      </c>
+      <c r="J14" t="s">
         <v>150</v>
       </c>
-      <c r="G14" t="s">
+      <c r="K14" t="s">
         <v>151</v>
       </c>
-      <c r="H14" t="s">
+      <c r="L14" t="s">
         <v>152</v>
       </c>
-      <c r="I14" t="s">
-        <v>38</v>
-      </c>
-      <c r="J14" t="s">
+      <c r="M14" t="s">
         <v>153</v>
       </c>
-      <c r="K14" t="s">
-        <v>154</v>
-      </c>
-      <c r="L14" t="s">
-        <v>155</v>
-      </c>
-      <c r="M14" t="s">
-        <v>156</v>
-      </c>
       <c r="N14">
         <v>1</v>
       </c>
@@ -2464,13 +2500,13 @@
         <v>0</v>
       </c>
       <c r="R14" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="S14" s="2">
         <v>45228</v>
       </c>
       <c r="T14" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="U14">
         <v>0</v>
@@ -2479,72 +2515,72 @@
         <v>0</v>
       </c>
       <c r="X14" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="Y14" t="s">
-        <v>45</v>
-      </c>
-      <c r="AG14">
+        <v>43</v>
+      </c>
+      <c r="AE14">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>10073</v>
       </c>
       <c r="B15" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C15" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D15" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E15">
         <v>2021</v>
       </c>
       <c r="F15" t="s">
+        <v>157</v>
+      </c>
+      <c r="H15" t="s">
+        <v>158</v>
+      </c>
+      <c r="I15" t="s">
+        <v>36</v>
+      </c>
+      <c r="J15" t="s">
+        <v>159</v>
+      </c>
+      <c r="K15" t="s">
         <v>160</v>
       </c>
-      <c r="H15" t="s">
+      <c r="L15" t="s">
         <v>161</v>
       </c>
-      <c r="I15" t="s">
-        <v>38</v>
-      </c>
-      <c r="J15" t="s">
+      <c r="M15" t="s">
         <v>162</v>
       </c>
-      <c r="K15" t="s">
+      <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15" t="s">
         <v>163</v>
-      </c>
-      <c r="L15" t="s">
-        <v>164</v>
-      </c>
-      <c r="M15" t="s">
-        <v>165</v>
-      </c>
-      <c r="N15">
-        <v>1</v>
-      </c>
-      <c r="O15">
-        <v>0</v>
-      </c>
-      <c r="P15">
-        <v>0</v>
-      </c>
-      <c r="Q15">
-        <v>0</v>
-      </c>
-      <c r="R15" t="s">
-        <v>166</v>
       </c>
       <c r="S15" s="2">
         <v>45228</v>
       </c>
       <c r="T15" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="U15">
         <v>0</v>
@@ -2553,129 +2589,138 @@
         <v>0</v>
       </c>
       <c r="X15" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="Y15" t="s">
-        <v>45</v>
-      </c>
-      <c r="AG15">
+        <v>43</v>
+      </c>
+      <c r="AE15">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>967</v>
       </c>
       <c r="B16" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C16" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D16" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="E16">
         <v>2005</v>
       </c>
       <c r="F16" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="G16">
         <v>3</v>
       </c>
       <c r="H16" t="s">
+        <v>168</v>
+      </c>
+      <c r="I16" t="s">
+        <v>36</v>
+      </c>
+      <c r="J16" t="s">
+        <v>169</v>
+      </c>
+      <c r="L16" t="s">
+        <v>170</v>
+      </c>
+      <c r="M16" t="s">
         <v>171</v>
       </c>
-      <c r="I16" t="s">
-        <v>38</v>
-      </c>
-      <c r="J16" t="s">
+      <c r="N16">
+        <v>1</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16" t="s">
         <v>172</v>
-      </c>
-      <c r="L16" t="s">
-        <v>173</v>
-      </c>
-      <c r="M16" t="s">
-        <v>174</v>
-      </c>
-      <c r="N16">
-        <v>1</v>
-      </c>
-      <c r="O16">
-        <v>0</v>
-      </c>
-      <c r="P16">
-        <v>0</v>
-      </c>
-      <c r="Q16">
-        <v>0</v>
-      </c>
-      <c r="R16" t="s">
-        <v>175</v>
       </c>
       <c r="S16" s="2">
         <v>45228</v>
       </c>
       <c r="T16" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="U16">
         <v>0</v>
       </c>
       <c r="V16" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="W16">
         <v>1</v>
       </c>
       <c r="Y16" t="s">
-        <v>45</v>
-      </c>
-      <c r="AG16">
-        <v>1</v>
-      </c>
-      <c r="AH16">
-        <v>0</v>
+        <v>43</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB16">
+        <v>1</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>382</v>
+      </c>
+      <c r="AE16">
+        <v>1</v>
+      </c>
+      <c r="AF16" t="s">
+        <v>380</v>
       </c>
     </row>
-    <row r="17" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>7833</v>
       </c>
       <c r="B17" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C17" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D17" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="E17">
         <v>2021</v>
       </c>
       <c r="F17" t="s">
+        <v>176</v>
+      </c>
+      <c r="G17" t="s">
+        <v>177</v>
+      </c>
+      <c r="H17" t="s">
+        <v>178</v>
+      </c>
+      <c r="I17" t="s">
+        <v>36</v>
+      </c>
+      <c r="J17" t="s">
         <v>179</v>
       </c>
-      <c r="G17" t="s">
+      <c r="L17" t="s">
         <v>180</v>
       </c>
-      <c r="H17" t="s">
+      <c r="M17" t="s">
         <v>181</v>
       </c>
-      <c r="I17" t="s">
-        <v>38</v>
-      </c>
-      <c r="J17" t="s">
-        <v>182</v>
-      </c>
-      <c r="L17" t="s">
-        <v>183</v>
-      </c>
-      <c r="M17" t="s">
-        <v>184</v>
-      </c>
       <c r="N17">
         <v>1</v>
       </c>
@@ -2689,13 +2734,13 @@
         <v>0</v>
       </c>
       <c r="R17" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="S17" s="2">
         <v>45228</v>
       </c>
       <c r="T17" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="U17">
         <v>0</v>
@@ -2704,66 +2749,66 @@
         <v>0</v>
       </c>
       <c r="X17" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="Y17" t="s">
-        <v>45</v>
-      </c>
-      <c r="AG17">
+        <v>43</v>
+      </c>
+      <c r="AE17">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>10693</v>
       </c>
       <c r="B18" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C18" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D18" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="E18">
         <v>2002</v>
       </c>
       <c r="I18" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="J18" t="s">
+        <v>185</v>
+      </c>
+      <c r="K18" t="s">
+        <v>186</v>
+      </c>
+      <c r="L18" t="s">
+        <v>187</v>
+      </c>
+      <c r="M18" t="s">
         <v>188</v>
       </c>
-      <c r="K18" t="s">
+      <c r="N18">
+        <v>1</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+      <c r="R18" t="s">
         <v>189</v>
-      </c>
-      <c r="L18" t="s">
-        <v>190</v>
-      </c>
-      <c r="M18" t="s">
-        <v>191</v>
-      </c>
-      <c r="N18">
-        <v>1</v>
-      </c>
-      <c r="O18">
-        <v>0</v>
-      </c>
-      <c r="P18">
-        <v>0</v>
-      </c>
-      <c r="Q18">
-        <v>0</v>
-      </c>
-      <c r="R18" t="s">
-        <v>192</v>
       </c>
       <c r="S18" s="2">
         <v>45228</v>
       </c>
       <c r="T18" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="U18">
         <v>0</v>
@@ -2772,46 +2817,55 @@
         <v>1</v>
       </c>
       <c r="Y18" t="s">
-        <v>45</v>
-      </c>
-      <c r="AG18">
-        <v>1</v>
-      </c>
-      <c r="AH18">
-        <v>1</v>
+        <v>43</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB18">
+        <v>1</v>
+      </c>
+      <c r="AC18" t="s">
+        <v>382</v>
+      </c>
+      <c r="AE18">
+        <v>1</v>
+      </c>
+      <c r="AF18" t="s">
+        <v>381</v>
       </c>
     </row>
-    <row r="19" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>8416</v>
       </c>
       <c r="B19" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C19" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D19" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E19">
         <v>2021</v>
       </c>
       <c r="F19" t="s">
+        <v>193</v>
+      </c>
+      <c r="I19" t="s">
+        <v>194</v>
+      </c>
+      <c r="J19" t="s">
+        <v>195</v>
+      </c>
+      <c r="L19" t="s">
         <v>196</v>
       </c>
-      <c r="I19" t="s">
+      <c r="M19" t="s">
         <v>197</v>
       </c>
-      <c r="J19" t="s">
-        <v>198</v>
-      </c>
-      <c r="L19" t="s">
-        <v>199</v>
-      </c>
-      <c r="M19" t="s">
-        <v>200</v>
-      </c>
       <c r="N19">
         <v>1</v>
       </c>
@@ -2825,13 +2879,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="S19" s="2">
         <v>45228</v>
       </c>
       <c r="T19" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="U19">
         <v>0</v>
@@ -2840,110 +2894,116 @@
         <v>0</v>
       </c>
       <c r="X19" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="Y19" t="s">
-        <v>45</v>
-      </c>
-      <c r="AG19">
+        <v>43</v>
+      </c>
+      <c r="AE19">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>4659</v>
       </c>
       <c r="B20" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C20" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D20" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="E20">
         <v>2007</v>
       </c>
       <c r="I20" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="J20" t="s">
+        <v>201</v>
+      </c>
+      <c r="L20" t="s">
+        <v>202</v>
+      </c>
+      <c r="M20" t="s">
+        <v>203</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+      <c r="R20" t="s">
         <v>204</v>
-      </c>
-      <c r="L20" t="s">
-        <v>205</v>
-      </c>
-      <c r="M20" t="s">
-        <v>206</v>
-      </c>
-      <c r="N20">
-        <v>1</v>
-      </c>
-      <c r="O20">
-        <v>0</v>
-      </c>
-      <c r="P20">
-        <v>0</v>
-      </c>
-      <c r="Q20">
-        <v>0</v>
-      </c>
-      <c r="R20" t="s">
-        <v>207</v>
       </c>
       <c r="S20" s="2">
         <v>45230</v>
       </c>
       <c r="T20" t="s">
+        <v>41</v>
+      </c>
+      <c r="U20">
+        <v>0</v>
+      </c>
+      <c r="V20" t="s">
+        <v>42</v>
+      </c>
+      <c r="W20">
+        <v>0</v>
+      </c>
+      <c r="X20" t="s">
+        <v>94</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z20" t="s">
         <v>43</v>
       </c>
-      <c r="U20">
-        <v>0</v>
-      </c>
-      <c r="V20" t="s">
-        <v>44</v>
-      </c>
-      <c r="W20">
-        <v>0</v>
-      </c>
-      <c r="X20" t="s">
-        <v>97</v>
-      </c>
-      <c r="Y20" t="s">
-        <v>57</v>
-      </c>
-      <c r="Z20" t="s">
-        <v>45</v>
-      </c>
-      <c r="AG20">
+      <c r="AB20">
+        <v>1</v>
+      </c>
+      <c r="AC20" t="s">
+        <v>379</v>
+      </c>
+      <c r="AE20">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>6410</v>
       </c>
       <c r="B21" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C21" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D21" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="E21">
         <v>2012</v>
       </c>
       <c r="I21" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="J21" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="M21" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -2958,90 +3018,96 @@
         <v>0</v>
       </c>
       <c r="R21" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="S21" s="2">
         <v>45228</v>
       </c>
       <c r="T21" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="U21">
         <v>0</v>
       </c>
       <c r="V21" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="W21">
         <v>0</v>
       </c>
       <c r="X21" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="Y21" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="Z21" t="s">
-        <v>45</v>
-      </c>
-      <c r="AG21">
+        <v>43</v>
+      </c>
+      <c r="AB21">
+        <v>1</v>
+      </c>
+      <c r="AC21" t="s">
+        <v>379</v>
+      </c>
+      <c r="AE21">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>273</v>
       </c>
       <c r="B22" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C22" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D22" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="E22">
         <v>2020</v>
       </c>
       <c r="F22" t="s">
+        <v>214</v>
+      </c>
+      <c r="H22" t="s">
+        <v>215</v>
+      </c>
+      <c r="I22" t="s">
+        <v>36</v>
+      </c>
+      <c r="J22" t="s">
+        <v>216</v>
+      </c>
+      <c r="L22" t="s">
         <v>217</v>
       </c>
-      <c r="H22" t="s">
+      <c r="M22" t="s">
         <v>218</v>
       </c>
-      <c r="I22" t="s">
-        <v>38</v>
-      </c>
-      <c r="J22" t="s">
+      <c r="N22">
+        <v>1</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+      <c r="R22" t="s">
         <v>219</v>
-      </c>
-      <c r="L22" t="s">
-        <v>220</v>
-      </c>
-      <c r="M22" t="s">
-        <v>221</v>
-      </c>
-      <c r="N22">
-        <v>1</v>
-      </c>
-      <c r="O22">
-        <v>0</v>
-      </c>
-      <c r="P22">
-        <v>0</v>
-      </c>
-      <c r="Q22">
-        <v>0</v>
-      </c>
-      <c r="R22" t="s">
-        <v>222</v>
       </c>
       <c r="S22" s="2">
         <v>45228</v>
       </c>
       <c r="T22" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="U22">
         <v>0</v>
@@ -3050,120 +3116,129 @@
         <v>0</v>
       </c>
       <c r="X22" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="Y22" t="s">
-        <v>45</v>
-      </c>
-      <c r="AG22">
+        <v>43</v>
+      </c>
+      <c r="AE22">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>7932</v>
       </c>
       <c r="B23" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C23" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="D23" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="E23">
         <v>2019</v>
       </c>
       <c r="I23" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="J23" t="s">
+        <v>224</v>
+      </c>
+      <c r="K23" t="s">
+        <v>225</v>
+      </c>
+      <c r="L23" t="s">
+        <v>226</v>
+      </c>
+      <c r="M23" t="s">
         <v>227</v>
       </c>
-      <c r="K23" t="s">
+      <c r="N23">
+        <v>1</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+      <c r="R23" t="s">
         <v>228</v>
-      </c>
-      <c r="L23" t="s">
-        <v>229</v>
-      </c>
-      <c r="M23" t="s">
-        <v>230</v>
-      </c>
-      <c r="N23">
-        <v>1</v>
-      </c>
-      <c r="O23">
-        <v>0</v>
-      </c>
-      <c r="P23">
-        <v>0</v>
-      </c>
-      <c r="Q23">
-        <v>0</v>
-      </c>
-      <c r="R23" t="s">
-        <v>231</v>
       </c>
       <c r="S23" s="2">
         <v>45230</v>
       </c>
       <c r="T23" t="s">
+        <v>41</v>
+      </c>
+      <c r="U23">
+        <v>0</v>
+      </c>
+      <c r="W23">
+        <v>1</v>
+      </c>
+      <c r="Y23" t="s">
         <v>43</v>
       </c>
-      <c r="U23">
-        <v>0</v>
-      </c>
-      <c r="W23">
-        <v>1</v>
-      </c>
-      <c r="Y23" t="s">
-        <v>45</v>
-      </c>
-      <c r="AG23">
-        <v>1</v>
-      </c>
-      <c r="AH23">
-        <v>1</v>
+      <c r="Z23" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB23">
+        <v>1</v>
+      </c>
+      <c r="AC23" t="s">
+        <v>382</v>
+      </c>
+      <c r="AE23">
+        <v>1</v>
+      </c>
+      <c r="AF23" t="s">
+        <v>381</v>
       </c>
     </row>
-    <row r="24" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>7303</v>
       </c>
       <c r="B24" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C24" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="D24" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="E24">
         <v>2011</v>
       </c>
       <c r="F24" t="s">
+        <v>232</v>
+      </c>
+      <c r="G24" t="s">
+        <v>177</v>
+      </c>
+      <c r="H24" t="s">
+        <v>233</v>
+      </c>
+      <c r="I24" t="s">
+        <v>36</v>
+      </c>
+      <c r="J24" t="s">
+        <v>234</v>
+      </c>
+      <c r="L24" t="s">
         <v>235</v>
       </c>
-      <c r="G24" t="s">
-        <v>180</v>
-      </c>
-      <c r="H24" t="s">
+      <c r="M24" t="s">
         <v>236</v>
       </c>
-      <c r="I24" t="s">
-        <v>38</v>
-      </c>
-      <c r="J24" t="s">
-        <v>237</v>
-      </c>
-      <c r="L24" t="s">
-        <v>238</v>
-      </c>
-      <c r="M24" t="s">
-        <v>239</v>
-      </c>
       <c r="N24">
         <v>1</v>
       </c>
@@ -3177,13 +3252,13 @@
         <v>0</v>
       </c>
       <c r="R24" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="S24" s="2">
         <v>45228</v>
       </c>
       <c r="T24" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="U24">
         <v>0</v>
@@ -3192,42 +3267,42 @@
         <v>0</v>
       </c>
       <c r="X24" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="Y24" t="s">
-        <v>45</v>
-      </c>
-      <c r="AG24">
+        <v>43</v>
+      </c>
+      <c r="AE24">
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>1054</v>
       </c>
       <c r="B25" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C25" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D25" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="E25">
         <v>1999</v>
       </c>
       <c r="I25" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="J25" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="L25" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="M25" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="N25">
         <v>0</v>
@@ -3245,13 +3320,13 @@
         <v>45228</v>
       </c>
       <c r="T25" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="U25">
         <v>0</v>
       </c>
       <c r="V25" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="W25">
         <v>0</v>
@@ -3260,75 +3335,81 @@
         <v>16</v>
       </c>
       <c r="Y25" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="Z25" t="s">
-        <v>45</v>
-      </c>
-      <c r="AG25">
+        <v>43</v>
+      </c>
+      <c r="AB25">
+        <v>1</v>
+      </c>
+      <c r="AC25" t="s">
+        <v>379</v>
+      </c>
+      <c r="AE25">
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>9902</v>
       </c>
       <c r="B26" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C26" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="D26" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="E26">
         <v>2011</v>
       </c>
       <c r="F26" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="G26" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="H26" t="s">
+        <v>247</v>
+      </c>
+      <c r="I26" t="s">
+        <v>36</v>
+      </c>
+      <c r="J26" t="s">
+        <v>248</v>
+      </c>
+      <c r="K26" t="s">
+        <v>249</v>
+      </c>
+      <c r="L26" t="s">
         <v>250</v>
       </c>
-      <c r="I26" t="s">
-        <v>38</v>
-      </c>
-      <c r="J26" t="s">
+      <c r="M26" t="s">
         <v>251</v>
       </c>
-      <c r="K26" t="s">
+      <c r="N26">
+        <v>1</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26">
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <v>0</v>
+      </c>
+      <c r="R26" t="s">
         <v>252</v>
-      </c>
-      <c r="L26" t="s">
-        <v>253</v>
-      </c>
-      <c r="M26" t="s">
-        <v>254</v>
-      </c>
-      <c r="N26">
-        <v>1</v>
-      </c>
-      <c r="O26">
-        <v>0</v>
-      </c>
-      <c r="P26">
-        <v>0</v>
-      </c>
-      <c r="Q26">
-        <v>0</v>
-      </c>
-      <c r="R26" t="s">
-        <v>255</v>
       </c>
       <c r="S26" s="2">
         <v>45228</v>
       </c>
       <c r="T26" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="U26">
         <v>0</v>
@@ -3337,75 +3418,84 @@
         <v>1</v>
       </c>
       <c r="Y26" t="s">
-        <v>45</v>
-      </c>
-      <c r="AG26">
-        <v>1</v>
-      </c>
-      <c r="AH26">
-        <v>1</v>
+        <v>43</v>
+      </c>
+      <c r="Z26" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB26">
+        <v>1</v>
+      </c>
+      <c r="AC26" t="s">
+        <v>382</v>
+      </c>
+      <c r="AE26">
+        <v>1</v>
+      </c>
+      <c r="AF26" t="s">
+        <v>381</v>
       </c>
     </row>
-    <row r="27" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>9858</v>
       </c>
       <c r="B27" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C27" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="D27" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="E27">
         <v>2018</v>
       </c>
       <c r="F27" t="s">
+        <v>256</v>
+      </c>
+      <c r="G27" t="s">
+        <v>70</v>
+      </c>
+      <c r="H27" t="s">
+        <v>48</v>
+      </c>
+      <c r="I27" t="s">
+        <v>36</v>
+      </c>
+      <c r="J27" t="s">
+        <v>257</v>
+      </c>
+      <c r="K27" t="s">
+        <v>258</v>
+      </c>
+      <c r="L27" t="s">
         <v>259</v>
       </c>
-      <c r="G27" t="s">
-        <v>73</v>
-      </c>
-      <c r="H27" t="s">
-        <v>50</v>
-      </c>
-      <c r="I27" t="s">
-        <v>38</v>
-      </c>
-      <c r="J27" t="s">
+      <c r="M27" t="s">
         <v>260</v>
       </c>
-      <c r="K27" t="s">
+      <c r="N27">
+        <v>1</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>0</v>
+      </c>
+      <c r="R27" t="s">
         <v>261</v>
-      </c>
-      <c r="L27" t="s">
-        <v>262</v>
-      </c>
-      <c r="M27" t="s">
-        <v>263</v>
-      </c>
-      <c r="N27">
-        <v>1</v>
-      </c>
-      <c r="O27">
-        <v>0</v>
-      </c>
-      <c r="P27">
-        <v>0</v>
-      </c>
-      <c r="Q27">
-        <v>0</v>
-      </c>
-      <c r="R27" t="s">
-        <v>264</v>
       </c>
       <c r="S27" s="2">
         <v>45228</v>
       </c>
       <c r="T27" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="U27">
         <v>0</v>
@@ -3414,75 +3504,75 @@
         <v>0</v>
       </c>
       <c r="X27" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="Y27" t="s">
-        <v>45</v>
-      </c>
-      <c r="AG27">
+        <v>43</v>
+      </c>
+      <c r="AE27">
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>9421</v>
       </c>
       <c r="B28" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C28" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="D28" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="E28">
         <v>2020</v>
       </c>
       <c r="F28" t="s">
+        <v>265</v>
+      </c>
+      <c r="G28" t="s">
+        <v>148</v>
+      </c>
+      <c r="H28" t="s">
+        <v>266</v>
+      </c>
+      <c r="I28" t="s">
+        <v>36</v>
+      </c>
+      <c r="J28" t="s">
+        <v>267</v>
+      </c>
+      <c r="K28" t="s">
         <v>268</v>
       </c>
-      <c r="G28" t="s">
-        <v>151</v>
-      </c>
-      <c r="H28" t="s">
+      <c r="L28" t="s">
         <v>269</v>
       </c>
-      <c r="I28" t="s">
-        <v>38</v>
-      </c>
-      <c r="J28" t="s">
+      <c r="M28" t="s">
         <v>270</v>
       </c>
-      <c r="K28" t="s">
+      <c r="N28">
+        <v>1</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28">
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <v>0</v>
+      </c>
+      <c r="R28" t="s">
         <v>271</v>
-      </c>
-      <c r="L28" t="s">
-        <v>272</v>
-      </c>
-      <c r="M28" t="s">
-        <v>273</v>
-      </c>
-      <c r="N28">
-        <v>1</v>
-      </c>
-      <c r="O28">
-        <v>0</v>
-      </c>
-      <c r="P28">
-        <v>0</v>
-      </c>
-      <c r="Q28">
-        <v>0</v>
-      </c>
-      <c r="R28" t="s">
-        <v>274</v>
       </c>
       <c r="S28" s="2">
         <v>45228</v>
       </c>
       <c r="T28" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="U28">
         <v>0</v>
@@ -3491,72 +3581,81 @@
         <v>1</v>
       </c>
       <c r="Y28" t="s">
-        <v>45</v>
-      </c>
-      <c r="AG28">
-        <v>1</v>
-      </c>
-      <c r="AH28">
-        <v>0</v>
+        <v>43</v>
+      </c>
+      <c r="Z28" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB28">
+        <v>1</v>
+      </c>
+      <c r="AC28" t="s">
+        <v>382</v>
+      </c>
+      <c r="AE28">
+        <v>1</v>
+      </c>
+      <c r="AF28" t="s">
+        <v>380</v>
       </c>
     </row>
-    <row r="29" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>7620</v>
       </c>
       <c r="B29" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C29" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D29" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="E29">
         <v>2010</v>
       </c>
       <c r="F29" t="s">
+        <v>275</v>
+      </c>
+      <c r="G29" t="s">
+        <v>70</v>
+      </c>
+      <c r="H29" t="s">
+        <v>70</v>
+      </c>
+      <c r="I29" t="s">
+        <v>36</v>
+      </c>
+      <c r="J29" t="s">
+        <v>276</v>
+      </c>
+      <c r="L29" t="s">
+        <v>277</v>
+      </c>
+      <c r="M29" t="s">
         <v>278</v>
       </c>
-      <c r="G29" t="s">
-        <v>73</v>
-      </c>
-      <c r="H29" t="s">
-        <v>73</v>
-      </c>
-      <c r="I29" t="s">
-        <v>38</v>
-      </c>
-      <c r="J29" t="s">
+      <c r="N29">
+        <v>1</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>0</v>
+      </c>
+      <c r="R29" t="s">
         <v>279</v>
-      </c>
-      <c r="L29" t="s">
-        <v>280</v>
-      </c>
-      <c r="M29" t="s">
-        <v>281</v>
-      </c>
-      <c r="N29">
-        <v>1</v>
-      </c>
-      <c r="O29">
-        <v>0</v>
-      </c>
-      <c r="P29">
-        <v>0</v>
-      </c>
-      <c r="Q29">
-        <v>0</v>
-      </c>
-      <c r="R29" t="s">
-        <v>282</v>
       </c>
       <c r="S29" s="2">
         <v>45228</v>
       </c>
       <c r="T29" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="U29">
         <v>0</v>
@@ -3565,116 +3664,116 @@
         <v>0</v>
       </c>
       <c r="X29" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="Y29" t="s">
-        <v>45</v>
-      </c>
-      <c r="AG29">
+        <v>43</v>
+      </c>
+      <c r="AE29">
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>1615</v>
       </c>
       <c r="B30" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C30" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="D30" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="E30">
         <v>2018</v>
       </c>
       <c r="F30" t="s">
+        <v>284</v>
+      </c>
+      <c r="G30">
+        <v>1</v>
+      </c>
+      <c r="H30" t="s">
+        <v>285</v>
+      </c>
+      <c r="I30" t="s">
+        <v>36</v>
+      </c>
+      <c r="J30" t="s">
+        <v>286</v>
+      </c>
+      <c r="K30" t="s">
         <v>287</v>
       </c>
-      <c r="G30">
-        <v>1</v>
-      </c>
-      <c r="H30" t="s">
+      <c r="L30" t="s">
         <v>288</v>
       </c>
-      <c r="I30" t="s">
-        <v>38</v>
-      </c>
-      <c r="J30" t="s">
+      <c r="M30" t="s">
         <v>289</v>
       </c>
-      <c r="K30" t="s">
+      <c r="N30">
+        <v>1</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30">
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <v>0</v>
+      </c>
+      <c r="R30" t="s">
         <v>290</v>
-      </c>
-      <c r="L30" t="s">
-        <v>291</v>
-      </c>
-      <c r="M30" t="s">
-        <v>292</v>
-      </c>
-      <c r="N30">
-        <v>1</v>
-      </c>
-      <c r="O30">
-        <v>0</v>
-      </c>
-      <c r="P30">
-        <v>0</v>
-      </c>
-      <c r="Q30">
-        <v>0</v>
-      </c>
-      <c r="R30" t="s">
-        <v>293</v>
       </c>
       <c r="S30" s="2">
         <v>45228</v>
       </c>
       <c r="T30" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="U30">
         <v>0</v>
       </c>
       <c r="V30" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="W30">
         <v>0</v>
       </c>
       <c r="X30" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="Y30" t="s">
-        <v>45</v>
-      </c>
-      <c r="AG30">
+        <v>43</v>
+      </c>
+      <c r="AE30">
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>6638</v>
       </c>
       <c r="B31" t="s">
+        <v>291</v>
+      </c>
+      <c r="C31" t="s">
+        <v>292</v>
+      </c>
+      <c r="D31" t="s">
+        <v>293</v>
+      </c>
+      <c r="I31" t="s">
+        <v>90</v>
+      </c>
+      <c r="J31" t="s">
         <v>294</v>
       </c>
-      <c r="C31" t="s">
+      <c r="M31" t="s">
         <v>295</v>
-      </c>
-      <c r="D31" t="s">
-        <v>296</v>
-      </c>
-      <c r="I31" t="s">
-        <v>93</v>
-      </c>
-      <c r="J31" t="s">
-        <v>297</v>
-      </c>
-      <c r="M31" t="s">
-        <v>298</v>
       </c>
       <c r="N31">
         <v>0</v>
@@ -3692,13 +3791,13 @@
         <v>45228</v>
       </c>
       <c r="T31" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="U31">
         <v>0</v>
       </c>
       <c r="V31" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="W31">
         <v>0</v>
@@ -3707,66 +3806,72 @@
         <v>16</v>
       </c>
       <c r="Y31" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="Z31" t="s">
-        <v>45</v>
-      </c>
-      <c r="AG31">
+        <v>43</v>
+      </c>
+      <c r="AB31">
+        <v>1</v>
+      </c>
+      <c r="AC31" t="s">
+        <v>379</v>
+      </c>
+      <c r="AE31">
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>9380</v>
       </c>
       <c r="B32" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C32" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="D32" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="E32">
         <v>2001</v>
       </c>
       <c r="I32" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="J32" t="s">
+        <v>300</v>
+      </c>
+      <c r="K32" t="s">
+        <v>301</v>
+      </c>
+      <c r="L32" t="s">
+        <v>302</v>
+      </c>
+      <c r="M32" t="s">
         <v>303</v>
       </c>
-      <c r="K32" t="s">
+      <c r="N32">
+        <v>1</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+      <c r="P32">
+        <v>0</v>
+      </c>
+      <c r="Q32">
+        <v>0</v>
+      </c>
+      <c r="R32" t="s">
         <v>304</v>
-      </c>
-      <c r="L32" t="s">
-        <v>305</v>
-      </c>
-      <c r="M32" t="s">
-        <v>306</v>
-      </c>
-      <c r="N32">
-        <v>1</v>
-      </c>
-      <c r="O32">
-        <v>0</v>
-      </c>
-      <c r="P32">
-        <v>0</v>
-      </c>
-      <c r="Q32">
-        <v>0</v>
-      </c>
-      <c r="R32" t="s">
-        <v>307</v>
       </c>
       <c r="S32" s="2">
         <v>45228</v>
       </c>
       <c r="T32" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="U32">
         <v>0</v>
@@ -3775,45 +3880,51 @@
         <v>0</v>
       </c>
       <c r="X32" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="Y32" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="Z32" t="s">
-        <v>45</v>
-      </c>
-      <c r="AG32">
+        <v>43</v>
+      </c>
+      <c r="AB32">
+        <v>1</v>
+      </c>
+      <c r="AC32" t="s">
+        <v>379</v>
+      </c>
+      <c r="AE32">
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>6384</v>
       </c>
       <c r="B33" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="C33" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="D33" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="E33">
         <v>2015</v>
       </c>
       <c r="I33" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="J33" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="L33" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="M33" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -3828,13 +3939,13 @@
         <v>0</v>
       </c>
       <c r="R33" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="S33" s="2">
         <v>45228</v>
       </c>
       <c r="T33" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="U33">
         <v>0</v>
@@ -3843,140 +3954,146 @@
         <v>0</v>
       </c>
       <c r="X33" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="Y33" t="s">
-        <v>45</v>
-      </c>
-      <c r="AG33">
+        <v>43</v>
+      </c>
+      <c r="AE33">
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>151</v>
       </c>
       <c r="B34" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="C34" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="D34" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="E34">
         <v>2013</v>
       </c>
       <c r="F34" t="s">
+        <v>314</v>
+      </c>
+      <c r="I34" t="s">
+        <v>36</v>
+      </c>
+      <c r="J34" t="s">
+        <v>315</v>
+      </c>
+      <c r="L34" t="s">
+        <v>316</v>
+      </c>
+      <c r="M34" t="s">
         <v>317</v>
       </c>
-      <c r="I34" t="s">
-        <v>38</v>
-      </c>
-      <c r="J34" t="s">
+      <c r="N34">
+        <v>1</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+      <c r="P34">
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <v>0</v>
+      </c>
+      <c r="R34" t="s">
         <v>318</v>
-      </c>
-      <c r="L34" t="s">
-        <v>319</v>
-      </c>
-      <c r="M34" t="s">
-        <v>320</v>
-      </c>
-      <c r="N34">
-        <v>1</v>
-      </c>
-      <c r="O34">
-        <v>0</v>
-      </c>
-      <c r="P34">
-        <v>0</v>
-      </c>
-      <c r="Q34">
-        <v>0</v>
-      </c>
-      <c r="R34" t="s">
-        <v>321</v>
       </c>
       <c r="S34" s="2">
         <v>45230</v>
       </c>
       <c r="T34" t="s">
+        <v>41</v>
+      </c>
+      <c r="U34">
+        <v>0</v>
+      </c>
+      <c r="W34">
+        <v>0</v>
+      </c>
+      <c r="X34" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z34" t="s">
         <v>43</v>
       </c>
-      <c r="U34">
-        <v>0</v>
-      </c>
-      <c r="W34">
-        <v>0</v>
-      </c>
-      <c r="X34" t="s">
-        <v>68</v>
-      </c>
-      <c r="Y34" t="s">
-        <v>57</v>
-      </c>
-      <c r="Z34" t="s">
-        <v>45</v>
-      </c>
-      <c r="AG34">
+      <c r="AB34">
+        <v>1</v>
+      </c>
+      <c r="AC34" t="s">
+        <v>379</v>
+      </c>
+      <c r="AE34">
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>1822</v>
       </c>
       <c r="B35" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="C35" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="D35" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="E35">
         <v>2017</v>
       </c>
       <c r="F35" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="H35" t="s">
+        <v>322</v>
+      </c>
+      <c r="I35" t="s">
+        <v>36</v>
+      </c>
+      <c r="J35" t="s">
+        <v>323</v>
+      </c>
+      <c r="L35" t="s">
+        <v>324</v>
+      </c>
+      <c r="M35" t="s">
         <v>325</v>
       </c>
-      <c r="I35" t="s">
-        <v>38</v>
-      </c>
-      <c r="J35" t="s">
+      <c r="N35">
+        <v>1</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35">
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <v>0</v>
+      </c>
+      <c r="R35" t="s">
         <v>326</v>
-      </c>
-      <c r="L35" t="s">
-        <v>327</v>
-      </c>
-      <c r="M35" t="s">
-        <v>328</v>
-      </c>
-      <c r="N35">
-        <v>1</v>
-      </c>
-      <c r="O35">
-        <v>0</v>
-      </c>
-      <c r="P35">
-        <v>0</v>
-      </c>
-      <c r="Q35">
-        <v>0</v>
-      </c>
-      <c r="R35" t="s">
-        <v>329</v>
       </c>
       <c r="S35" s="2">
         <v>45228</v>
       </c>
       <c r="T35" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="U35">
         <v>0</v>
@@ -3985,58 +4102,64 @@
         <v>1</v>
       </c>
       <c r="Y35" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="Z35" t="s">
-        <v>57</v>
-      </c>
-      <c r="AG35">
-        <v>1</v>
-      </c>
-      <c r="AH35">
-        <v>0</v>
+        <v>55</v>
+      </c>
+      <c r="AB35">
+        <v>1</v>
+      </c>
+      <c r="AC35" t="s">
+        <v>383</v>
+      </c>
+      <c r="AE35">
+        <v>1</v>
+      </c>
+      <c r="AF35" t="s">
+        <v>380</v>
       </c>
     </row>
-    <row r="36" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>10066</v>
       </c>
       <c r="B36" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="C36" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="D36" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="E36">
         <v>2011</v>
       </c>
       <c r="F36" t="s">
+        <v>330</v>
+      </c>
+      <c r="G36" t="s">
+        <v>178</v>
+      </c>
+      <c r="H36" t="s">
+        <v>177</v>
+      </c>
+      <c r="I36" t="s">
+        <v>36</v>
+      </c>
+      <c r="J36" t="s">
+        <v>331</v>
+      </c>
+      <c r="K36" t="s">
+        <v>332</v>
+      </c>
+      <c r="L36" t="s">
         <v>333</v>
       </c>
-      <c r="G36" t="s">
-        <v>181</v>
-      </c>
-      <c r="H36" t="s">
-        <v>180</v>
-      </c>
-      <c r="I36" t="s">
-        <v>38</v>
-      </c>
-      <c r="J36" t="s">
+      <c r="M36" t="s">
         <v>334</v>
       </c>
-      <c r="K36" t="s">
-        <v>335</v>
-      </c>
-      <c r="L36" t="s">
-        <v>336</v>
-      </c>
-      <c r="M36" t="s">
-        <v>337</v>
-      </c>
       <c r="N36">
         <v>0</v>
       </c>
@@ -4050,19 +4173,19 @@
         <v>0</v>
       </c>
       <c r="R36" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="S36" s="2">
         <v>45228</v>
       </c>
       <c r="T36" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="U36">
         <v>0</v>
       </c>
       <c r="V36" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="W36">
         <v>0</v>
@@ -4071,42 +4194,48 @@
         <v>14</v>
       </c>
       <c r="Y36" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="Z36" t="s">
-        <v>45</v>
-      </c>
-      <c r="AG36">
+        <v>43</v>
+      </c>
+      <c r="AB36">
+        <v>1</v>
+      </c>
+      <c r="AC36" t="s">
+        <v>379</v>
+      </c>
+      <c r="AE36">
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>8705</v>
       </c>
       <c r="B37" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="C37" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="D37" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="E37">
         <v>2019</v>
       </c>
       <c r="I37" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="J37" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="L37" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="M37" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -4121,13 +4250,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="S37" s="2">
         <v>45228</v>
       </c>
       <c r="T37" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="U37">
         <v>0</v>
@@ -4136,75 +4265,81 @@
         <v>0</v>
       </c>
       <c r="X37" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="Y37" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="Z37" t="s">
-        <v>45</v>
-      </c>
-      <c r="AG37">
+        <v>43</v>
+      </c>
+      <c r="AB37">
+        <v>1</v>
+      </c>
+      <c r="AC37" t="s">
+        <v>379</v>
+      </c>
+      <c r="AE37">
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>1726</v>
       </c>
       <c r="B38" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C38" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="D38" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="E38">
         <v>2015</v>
       </c>
       <c r="F38" t="s">
+        <v>345</v>
+      </c>
+      <c r="G38" t="s">
+        <v>178</v>
+      </c>
+      <c r="H38" t="s">
+        <v>346</v>
+      </c>
+      <c r="I38" t="s">
+        <v>36</v>
+      </c>
+      <c r="J38" t="s">
+        <v>347</v>
+      </c>
+      <c r="L38" t="s">
         <v>348</v>
       </c>
-      <c r="G38" t="s">
-        <v>181</v>
-      </c>
-      <c r="H38" t="s">
+      <c r="M38" t="s">
         <v>349</v>
       </c>
-      <c r="I38" t="s">
-        <v>38</v>
-      </c>
-      <c r="J38" t="s">
+      <c r="N38">
+        <v>1</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
+      <c r="P38">
+        <v>0</v>
+      </c>
+      <c r="Q38">
+        <v>0</v>
+      </c>
+      <c r="R38" t="s">
         <v>350</v>
-      </c>
-      <c r="L38" t="s">
-        <v>351</v>
-      </c>
-      <c r="M38" t="s">
-        <v>352</v>
-      </c>
-      <c r="N38">
-        <v>1</v>
-      </c>
-      <c r="O38">
-        <v>0</v>
-      </c>
-      <c r="P38">
-        <v>0</v>
-      </c>
-      <c r="Q38">
-        <v>0</v>
-      </c>
-      <c r="R38" t="s">
-        <v>353</v>
       </c>
       <c r="S38" s="2">
         <v>45228</v>
       </c>
       <c r="T38" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="U38">
         <v>0</v>
@@ -4213,69 +4348,69 @@
         <v>0</v>
       </c>
       <c r="X38" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="Y38" t="s">
-        <v>45</v>
-      </c>
-      <c r="AG38">
+        <v>43</v>
+      </c>
+      <c r="AE38">
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>2868</v>
       </c>
       <c r="B39" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="C39" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="D39" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="E39">
         <v>2018</v>
       </c>
       <c r="F39" t="s">
+        <v>354</v>
+      </c>
+      <c r="H39" t="s">
+        <v>355</v>
+      </c>
+      <c r="I39" t="s">
+        <v>36</v>
+      </c>
+      <c r="J39" t="s">
+        <v>356</v>
+      </c>
+      <c r="L39" t="s">
         <v>357</v>
       </c>
-      <c r="H39" t="s">
+      <c r="M39" t="s">
         <v>358</v>
       </c>
-      <c r="I39" t="s">
-        <v>38</v>
-      </c>
-      <c r="J39" t="s">
+      <c r="N39">
+        <v>1</v>
+      </c>
+      <c r="O39">
+        <v>0</v>
+      </c>
+      <c r="P39">
+        <v>0</v>
+      </c>
+      <c r="Q39">
+        <v>0</v>
+      </c>
+      <c r="R39" t="s">
         <v>359</v>
-      </c>
-      <c r="L39" t="s">
-        <v>360</v>
-      </c>
-      <c r="M39" t="s">
-        <v>361</v>
-      </c>
-      <c r="N39">
-        <v>1</v>
-      </c>
-      <c r="O39">
-        <v>0</v>
-      </c>
-      <c r="P39">
-        <v>0</v>
-      </c>
-      <c r="Q39">
-        <v>0</v>
-      </c>
-      <c r="R39" t="s">
-        <v>362</v>
       </c>
       <c r="S39" s="2">
         <v>45228</v>
       </c>
       <c r="T39" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="U39">
         <v>0</v>
@@ -4284,51 +4419,51 @@
         <v>0</v>
       </c>
       <c r="X39" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="Y39" t="s">
-        <v>45</v>
-      </c>
-      <c r="AG39">
+        <v>43</v>
+      </c>
+      <c r="AE39">
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>1250</v>
       </c>
       <c r="B40" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="C40" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="D40" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="E40">
         <v>2022</v>
       </c>
       <c r="F40" t="s">
+        <v>363</v>
+      </c>
+      <c r="G40" t="s">
+        <v>70</v>
+      </c>
+      <c r="H40" t="s">
+        <v>364</v>
+      </c>
+      <c r="I40" t="s">
+        <v>36</v>
+      </c>
+      <c r="J40" t="s">
+        <v>365</v>
+      </c>
+      <c r="L40" t="s">
         <v>366</v>
       </c>
-      <c r="G40" t="s">
-        <v>73</v>
-      </c>
-      <c r="H40" t="s">
+      <c r="M40" t="s">
         <v>367</v>
-      </c>
-      <c r="I40" t="s">
-        <v>38</v>
-      </c>
-      <c r="J40" t="s">
-        <v>368</v>
-      </c>
-      <c r="L40" t="s">
-        <v>369</v>
-      </c>
-      <c r="M40" t="s">
-        <v>370</v>
       </c>
       <c r="N40">
         <v>0</v>
@@ -4346,13 +4481,13 @@
         <v>45228</v>
       </c>
       <c r="T40" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="U40">
         <v>0</v>
       </c>
       <c r="V40" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="W40">
         <v>0</v>
@@ -4361,55 +4496,61 @@
         <v>16</v>
       </c>
       <c r="Y40" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="Z40" t="s">
-        <v>45</v>
-      </c>
-      <c r="AG40">
+        <v>43</v>
+      </c>
+      <c r="AB40">
+        <v>1</v>
+      </c>
+      <c r="AC40" t="s">
+        <v>379</v>
+      </c>
+      <c r="AE40">
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>10262</v>
       </c>
       <c r="B41" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="C41" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="D41" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="E41">
         <v>2011</v>
       </c>
       <c r="F41" t="s">
+        <v>372</v>
+      </c>
+      <c r="G41" t="s">
+        <v>373</v>
+      </c>
+      <c r="H41" t="s">
+        <v>364</v>
+      </c>
+      <c r="I41" t="s">
+        <v>36</v>
+      </c>
+      <c r="J41" t="s">
+        <v>374</v>
+      </c>
+      <c r="K41" t="s">
         <v>375</v>
       </c>
-      <c r="G41" t="s">
+      <c r="L41" t="s">
         <v>376</v>
       </c>
-      <c r="H41" t="s">
-        <v>367</v>
-      </c>
-      <c r="I41" t="s">
-        <v>38</v>
-      </c>
-      <c r="J41" t="s">
+      <c r="M41" t="s">
         <v>377</v>
       </c>
-      <c r="K41" t="s">
-        <v>378</v>
-      </c>
-      <c r="L41" t="s">
-        <v>379</v>
-      </c>
-      <c r="M41" t="s">
-        <v>380</v>
-      </c>
       <c r="N41">
         <v>1</v>
       </c>
@@ -4423,13 +4564,13 @@
         <v>0</v>
       </c>
       <c r="R41" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="S41" s="2">
         <v>45228</v>
       </c>
       <c r="T41" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="U41">
         <v>0</v>
@@ -4438,10 +4579,10 @@
         <v>0</v>
       </c>
       <c r="X41" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="Y41" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/data/study_search/database_search/processed/post_AS/packages_for_full_text_download/study_set_26.xlsx
+++ b/data/study_search/database_search/processed/post_AS/packages_for_full_text_download/study_set_26.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/franzprante/GitHub/MORPEP/META_CMP/data/data/study_search/database_search/processed/post_AS/packages_for_full_text_download/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{694BB166-0745-844B-9FBA-029A2A61F2F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E58AE0B8-58BC-664B-B69A-FC89F59D212E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4440" yWindow="740" windowWidth="20520" windowHeight="16740" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1419,8 +1419,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AF41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="X1" zoomScale="170" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AC3" sqref="AC3"/>
+    <sheetView tabSelected="1" topLeftCell="V1" zoomScale="170" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="W1" sqref="W1:W1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4583,6 +4583,9 @@
       </c>
       <c r="Y41" t="s">
         <v>43</v>
+      </c>
+      <c r="AE41">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
